--- a/Code/Results/Cases/Case_0_253/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_253/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.8318194599602455</v>
+        <v>1.069404619044566</v>
       </c>
       <c r="D2">
-        <v>0.8516456605549996</v>
+        <v>1.074188088067272</v>
       </c>
       <c r="E2">
-        <v>0.8547061107186356</v>
+        <v>1.063392055330244</v>
       </c>
       <c r="F2">
-        <v>0.8485927568445559</v>
+        <v>1.082450564687025</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.8605310953676587</v>
+        <v>1.074339515050226</v>
       </c>
       <c r="K2">
-        <v>0.8656483817560719</v>
+        <v>1.076877962343133</v>
       </c>
       <c r="L2">
-        <v>0.8686445678684783</v>
+        <v>1.066110819384371</v>
       </c>
       <c r="M2">
-        <v>0.862660195518908</v>
+        <v>1.085118749329561</v>
       </c>
       <c r="N2">
-        <v>0.861753148227377</v>
+        <v>1.075865200390062</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8760441851656603</v>
+        <v>1.073499821534698</v>
       </c>
       <c r="D3">
-        <v>0.8930210100524687</v>
+        <v>1.078068119455432</v>
       </c>
       <c r="E3">
-        <v>0.8934916829306313</v>
+        <v>1.067014910477174</v>
       </c>
       <c r="F3">
-        <v>0.8919998647352091</v>
+        <v>1.086553944373795</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9005972233889022</v>
+        <v>1.078077137737485</v>
       </c>
       <c r="K3">
-        <v>0.9052342171300881</v>
+        <v>1.08056757023439</v>
       </c>
       <c r="L3">
-        <v>0.9056968672681096</v>
+        <v>1.069541647556044</v>
       </c>
       <c r="M3">
-        <v>0.9042305151085954</v>
+        <v>1.089032851632673</v>
       </c>
       <c r="N3">
-        <v>0.9018761747460599</v>
+        <v>1.079608130930248</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8992319665074355</v>
+        <v>1.076122029012796</v>
       </c>
       <c r="D4">
-        <v>0.9147582038052934</v>
+        <v>1.080551921490236</v>
       </c>
       <c r="E4">
-        <v>0.9138828832519937</v>
+        <v>1.069333299430811</v>
       </c>
       <c r="F4">
-        <v>0.9148059297635623</v>
+        <v>1.089181731879241</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9216188663476588</v>
+        <v>1.080468739226109</v>
       </c>
       <c r="K4">
-        <v>0.9260073236552536</v>
+        <v>1.082928205225848</v>
       </c>
       <c r="L4">
-        <v>0.9251452367383202</v>
+        <v>1.071735790851134</v>
       </c>
       <c r="M4">
-        <v>0.9260543289903068</v>
+        <v>1.091538249183221</v>
       </c>
       <c r="N4">
-        <v>0.9229276708490338</v>
+        <v>1.082003128767306</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9081238558128504</v>
+        <v>1.077218013818547</v>
       </c>
       <c r="D5">
-        <v>0.9231002529776976</v>
+        <v>1.081589905841725</v>
       </c>
       <c r="E5">
-        <v>0.9217100954962534</v>
+        <v>1.070301969291542</v>
       </c>
       <c r="F5">
-        <v>0.9235592937900685</v>
+        <v>1.090280129657587</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9296806879204819</v>
+        <v>1.081467945314063</v>
       </c>
       <c r="K5">
-        <v>0.9339741932916974</v>
+        <v>1.083914415175479</v>
       </c>
       <c r="L5">
-        <v>0.9326040597018179</v>
+        <v>1.072652223395527</v>
       </c>
       <c r="M5">
-        <v>0.9344266388244132</v>
+        <v>1.092585207443027</v>
       </c>
       <c r="N5">
-        <v>0.9310009411331942</v>
+        <v>1.083003753842516</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9095745140206754</v>
+        <v>1.077401666291574</v>
       </c>
       <c r="D6">
-        <v>0.9244615121619272</v>
+        <v>1.081763830294938</v>
       </c>
       <c r="E6">
-        <v>0.92298741091303</v>
+        <v>1.070464268354773</v>
       </c>
       <c r="F6">
-        <v>0.92498775102593</v>
+        <v>1.090464191158566</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9309959082406936</v>
+        <v>1.081635357590057</v>
       </c>
       <c r="K6">
-        <v>0.9352739356663236</v>
+        <v>1.084079646577313</v>
       </c>
       <c r="L6">
-        <v>0.9338208973919897</v>
+        <v>1.072805751137326</v>
       </c>
       <c r="M6">
-        <v>0.9357926758389619</v>
+        <v>1.092760632593145</v>
       </c>
       <c r="N6">
-        <v>0.9323180292171186</v>
+        <v>1.083171403863145</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.899353766047664</v>
+        <v>1.076136698426808</v>
       </c>
       <c r="D7">
-        <v>0.914872449355055</v>
+        <v>1.080565815187576</v>
       </c>
       <c r="E7">
-        <v>0.9139900727336575</v>
+        <v>1.069346266077436</v>
       </c>
       <c r="F7">
-        <v>0.9149258031304769</v>
+        <v>1.08919643327435</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.9217292959372231</v>
+        <v>1.080482114839759</v>
       </c>
       <c r="K7">
-        <v>0.9261164515651436</v>
+        <v>1.082941407100331</v>
       </c>
       <c r="L7">
-        <v>0.925247406543568</v>
+        <v>1.071748059526135</v>
       </c>
       <c r="M7">
-        <v>0.9261690002821518</v>
+        <v>1.091552263198381</v>
       </c>
       <c r="N7">
-        <v>0.9230382572612816</v>
+        <v>1.082016523375862</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.8482871048164177</v>
+        <v>1.070794481193901</v>
       </c>
       <c r="D8">
-        <v>0.8670379674397911</v>
+        <v>1.075505053895055</v>
       </c>
       <c r="E8">
-        <v>0.8691297170080721</v>
+        <v>1.064621892479433</v>
       </c>
       <c r="F8">
-        <v>0.864741362600714</v>
+        <v>1.0838431293129</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.8754439304689927</v>
+        <v>1.075608361290322</v>
       </c>
       <c r="K8">
-        <v>0.8803811512888932</v>
+        <v>1.07813055916407</v>
       </c>
       <c r="L8">
-        <v>0.882432151557046</v>
+        <v>1.067275754349049</v>
       </c>
       <c r="M8">
-        <v>0.8781295846367935</v>
+        <v>1.086447324754199</v>
       </c>
       <c r="N8">
-        <v>0.8766871612650812</v>
+        <v>1.077135848537358</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.8482871048164177</v>
+        <v>1.061158198065161</v>
       </c>
       <c r="D9">
-        <v>0.8670379674397911</v>
+        <v>1.066371616934374</v>
       </c>
       <c r="E9">
-        <v>0.8691297170080721</v>
+        <v>1.056089480605242</v>
       </c>
       <c r="F9">
-        <v>0.864741362600714</v>
+        <v>1.074189616686943</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.8754439304689927</v>
+        <v>1.066804264487162</v>
       </c>
       <c r="K9">
-        <v>0.8803811512888932</v>
+        <v>1.069438200897037</v>
       </c>
       <c r="L9">
-        <v>0.882432151557046</v>
+        <v>1.059187887108215</v>
       </c>
       <c r="M9">
-        <v>0.8781295846367935</v>
+        <v>1.07723244901418</v>
       </c>
       <c r="N9">
-        <v>0.8766871612650812</v>
+        <v>1.068319248906892</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8482871048164177</v>
+        <v>1.054568734874692</v>
       </c>
       <c r="D10">
-        <v>0.8670379674397911</v>
+        <v>1.060122839671849</v>
       </c>
       <c r="E10">
-        <v>0.8691297170080721</v>
+        <v>1.050247859037545</v>
       </c>
       <c r="F10">
-        <v>0.864741362600714</v>
+        <v>1.067590356509285</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.8754439304689927</v>
+        <v>1.060775224264203</v>
       </c>
       <c r="K10">
-        <v>0.8803811512888932</v>
+        <v>1.063484407765978</v>
       </c>
       <c r="L10">
-        <v>0.882432151557046</v>
+        <v>1.053643312307956</v>
       </c>
       <c r="M10">
-        <v>0.8781295846367935</v>
+        <v>1.070926757649121</v>
       </c>
       <c r="N10">
-        <v>0.8766871612650812</v>
+        <v>1.062281646755276</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8482871048164177</v>
+        <v>1.051672573472101</v>
       </c>
       <c r="D11">
-        <v>0.8670379674397911</v>
+        <v>1.057375686463261</v>
       </c>
       <c r="E11">
-        <v>0.8691297170080721</v>
+        <v>1.047678757758961</v>
       </c>
       <c r="F11">
-        <v>0.864741362600714</v>
+        <v>1.064690386353461</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.8754439304689927</v>
+        <v>1.058123332759835</v>
       </c>
       <c r="K11">
-        <v>0.8803811512888932</v>
+        <v>1.060865314548612</v>
       </c>
       <c r="L11">
-        <v>0.882432151557046</v>
+        <v>1.05120309939799</v>
       </c>
       <c r="M11">
-        <v>0.8781295846367935</v>
+        <v>1.068154289907685</v>
       </c>
       <c r="N11">
-        <v>0.8766871612650812</v>
+        <v>1.059625989260796</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8482871048164177</v>
+        <v>1.050590041262798</v>
       </c>
       <c r="D12">
-        <v>0.8670379674397911</v>
+        <v>1.056348743558179</v>
       </c>
       <c r="E12">
-        <v>0.8691297170080721</v>
+        <v>1.046718233444627</v>
       </c>
       <c r="F12">
-        <v>0.864741362600714</v>
+        <v>1.063606507476275</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.8754439304689927</v>
+        <v>1.057131797778756</v>
       </c>
       <c r="K12">
-        <v>0.8803811512888932</v>
+        <v>1.059885997993526</v>
       </c>
       <c r="L12">
-        <v>0.882432151557046</v>
+        <v>1.050290498862824</v>
       </c>
       <c r="M12">
-        <v>0.8781295846367935</v>
+        <v>1.067117839014086</v>
       </c>
       <c r="N12">
-        <v>0.8766871612650812</v>
+        <v>1.058633046186314</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8482871048164177</v>
+        <v>1.050822559818209</v>
       </c>
       <c r="D13">
-        <v>0.8670379674397911</v>
+        <v>1.056569326824624</v>
       </c>
       <c r="E13">
-        <v>0.8691297170080721</v>
+        <v>1.046924556611527</v>
       </c>
       <c r="F13">
-        <v>0.864741362600714</v>
+        <v>1.063839311766787</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.8754439304689927</v>
+        <v>1.057344784757568</v>
       </c>
       <c r="K13">
-        <v>0.8803811512888932</v>
+        <v>1.060096362409732</v>
       </c>
       <c r="L13">
-        <v>0.882432151557046</v>
+        <v>1.050486539853503</v>
       </c>
       <c r="M13">
-        <v>0.8781295846367935</v>
+        <v>1.067340466601679</v>
       </c>
       <c r="N13">
-        <v>0.8766871612650812</v>
+        <v>1.058846335631066</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8482871048164177</v>
+        <v>1.051583231047804</v>
       </c>
       <c r="D14">
-        <v>0.8670379674397911</v>
+        <v>1.057290934048185</v>
       </c>
       <c r="E14">
-        <v>0.8691297170080721</v>
+        <v>1.047599489655193</v>
       </c>
       <c r="F14">
-        <v>0.864741362600714</v>
+        <v>1.064600931206836</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.8754439304689927</v>
+        <v>1.058041506658048</v>
       </c>
       <c r="K14">
-        <v>0.8803811512888932</v>
+        <v>1.060784497678436</v>
       </c>
       <c r="L14">
-        <v>0.882432151557046</v>
+        <v>1.051127791637374</v>
       </c>
       <c r="M14">
-        <v>0.8781295846367935</v>
+        <v>1.068068753727957</v>
       </c>
       <c r="N14">
-        <v>0.8766871612650812</v>
+        <v>1.05954404695656</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8482871048164177</v>
+        <v>1.052050998725617</v>
       </c>
       <c r="D15">
-        <v>0.8670379674397911</v>
+        <v>1.057734665573341</v>
       </c>
       <c r="E15">
-        <v>0.8691297170080721</v>
+        <v>1.048014501656273</v>
       </c>
       <c r="F15">
-        <v>0.864741362600714</v>
+        <v>1.065069292219917</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.8754439304689927</v>
+        <v>1.058469908820806</v>
       </c>
       <c r="K15">
-        <v>0.8803811512888932</v>
+        <v>1.061207614162276</v>
       </c>
       <c r="L15">
-        <v>0.882432151557046</v>
+        <v>1.05152205826036</v>
       </c>
       <c r="M15">
-        <v>0.8781295846367935</v>
+        <v>1.068516586909231</v>
       </c>
       <c r="N15">
-        <v>0.8766871612650812</v>
+        <v>1.059973057499528</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8482871048164177</v>
+        <v>1.054760012593406</v>
       </c>
       <c r="D16">
-        <v>0.8670379674397911</v>
+        <v>1.060304261038091</v>
       </c>
       <c r="E16">
-        <v>0.8691297170080721</v>
+        <v>1.05041750218432</v>
       </c>
       <c r="F16">
-        <v>0.864741362600714</v>
+        <v>1.067781896382617</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.8754439304689927</v>
+        <v>1.060950326364016</v>
       </c>
       <c r="K16">
-        <v>0.8803811512888932</v>
+        <v>1.063657337972954</v>
       </c>
       <c r="L16">
-        <v>0.882432151557046</v>
+        <v>1.053804407909191</v>
       </c>
       <c r="M16">
-        <v>0.8781295846367935</v>
+        <v>1.07110984456905</v>
       </c>
       <c r="N16">
-        <v>0.8766871612650812</v>
+        <v>1.062456997520156</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8482871048164177</v>
+        <v>1.056447599266</v>
       </c>
       <c r="D17">
-        <v>0.8670379674397911</v>
+        <v>1.061904804836991</v>
       </c>
       <c r="E17">
-        <v>0.8691297170080721</v>
+        <v>1.051914027355046</v>
       </c>
       <c r="F17">
-        <v>0.864741362600714</v>
+        <v>1.06947185322566</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.8754439304689927</v>
+        <v>1.062494966149789</v>
       </c>
       <c r="K17">
-        <v>0.8803811512888932</v>
+        <v>1.065182784420728</v>
       </c>
       <c r="L17">
-        <v>0.882432151557046</v>
+        <v>1.055225329233717</v>
       </c>
       <c r="M17">
-        <v>0.8781295846367935</v>
+        <v>1.072725048573062</v>
       </c>
       <c r="N17">
-        <v>0.8766871612650812</v>
+        <v>1.064003830871598</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8482871048164177</v>
+        <v>1.057427825519445</v>
       </c>
       <c r="D18">
-        <v>0.8670379674397911</v>
+        <v>1.06283440290319</v>
       </c>
       <c r="E18">
-        <v>0.8691297170080721</v>
+        <v>1.052783120706712</v>
       </c>
       <c r="F18">
-        <v>0.864741362600714</v>
+        <v>1.070453503568833</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.8754439304689927</v>
+        <v>1.063391966919018</v>
       </c>
       <c r="K18">
-        <v>0.8803811512888932</v>
+        <v>1.066068610634144</v>
       </c>
       <c r="L18">
-        <v>0.882432151557046</v>
+        <v>1.056050349092324</v>
       </c>
       <c r="M18">
-        <v>0.8781295846367935</v>
+        <v>1.073663133312905</v>
       </c>
       <c r="N18">
-        <v>0.8766871612650812</v>
+        <v>1.064902105484807</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8482871048164177</v>
+        <v>1.05776136911943</v>
       </c>
       <c r="D19">
-        <v>0.8670379674397911</v>
+        <v>1.063150707248724</v>
       </c>
       <c r="E19">
-        <v>0.8691297170080721</v>
+        <v>1.05307882236829</v>
       </c>
       <c r="F19">
-        <v>0.864741362600714</v>
+        <v>1.070787539717096</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.8754439304689927</v>
+        <v>1.063697158033274</v>
       </c>
       <c r="K19">
-        <v>0.8803811512888932</v>
+        <v>1.066369994910177</v>
       </c>
       <c r="L19">
-        <v>0.882432151557046</v>
+        <v>1.05633102679533</v>
       </c>
       <c r="M19">
-        <v>0.8781295846367935</v>
+        <v>1.073982320603663</v>
       </c>
       <c r="N19">
-        <v>0.8766871612650812</v>
+        <v>1.06520773000545</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.8482871048164177</v>
+        <v>1.056266965082055</v>
       </c>
       <c r="D20">
-        <v>0.8670379674397911</v>
+        <v>1.06173349467292</v>
       </c>
       <c r="E20">
-        <v>0.8691297170080721</v>
+        <v>1.051753859935153</v>
       </c>
       <c r="F20">
-        <v>0.864741362600714</v>
+        <v>1.069290960420143</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.8754439304689927</v>
+        <v>1.062329652819211</v>
       </c>
       <c r="K20">
-        <v>0.8803811512888932</v>
+        <v>1.065019528200514</v>
       </c>
       <c r="L20">
-        <v>0.882432151557046</v>
+        <v>1.055073270745956</v>
       </c>
       <c r="M20">
-        <v>0.8781295846367935</v>
+        <v>1.072552172197074</v>
       </c>
       <c r="N20">
-        <v>0.8766871612650812</v>
+        <v>1.063838282777128</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.8482871048164177</v>
+        <v>1.051359421885189</v>
       </c>
       <c r="D21">
-        <v>0.8670379674397911</v>
+        <v>1.057078621464795</v>
       </c>
       <c r="E21">
-        <v>0.8691297170080721</v>
+        <v>1.047400913506776</v>
       </c>
       <c r="F21">
-        <v>0.864741362600714</v>
+        <v>1.064376840916159</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.8754439304689927</v>
+        <v>1.057836521481384</v>
       </c>
       <c r="K21">
-        <v>0.8803811512888932</v>
+        <v>1.060582040038853</v>
       </c>
       <c r="L21">
-        <v>0.882432151557046</v>
+        <v>1.050939132355749</v>
       </c>
       <c r="M21">
-        <v>0.8781295846367935</v>
+        <v>1.067854477015278</v>
       </c>
       <c r="N21">
-        <v>0.8766871612650812</v>
+        <v>1.059338770677433</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.8482871048164177</v>
+        <v>1.048234518871114</v>
       </c>
       <c r="D22">
-        <v>0.8670379674397911</v>
+        <v>1.054113985804676</v>
       </c>
       <c r="E22">
-        <v>0.8691297170080721</v>
+        <v>1.044627753924193</v>
       </c>
       <c r="F22">
-        <v>0.864741362600714</v>
+        <v>1.061248198549691</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.8754439304689927</v>
+        <v>1.05497371858355</v>
       </c>
       <c r="K22">
-        <v>0.8803811512888932</v>
+        <v>1.057754430387524</v>
       </c>
       <c r="L22">
-        <v>0.882432151557046</v>
+        <v>1.048303833781944</v>
       </c>
       <c r="M22">
-        <v>0.8781295846367935</v>
+        <v>1.064862307429477</v>
       </c>
       <c r="N22">
-        <v>0.8766871612650812</v>
+        <v>1.056471902271116</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.8482871048164177</v>
+        <v>1.049894930753248</v>
       </c>
       <c r="D23">
-        <v>0.8670379674397911</v>
+        <v>1.055689297867532</v>
       </c>
       <c r="E23">
-        <v>0.8691297170080721</v>
+        <v>1.046101398555661</v>
       </c>
       <c r="F23">
-        <v>0.864741362600714</v>
+        <v>1.062910554219863</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.8754439304689927</v>
+        <v>1.056495031783046</v>
       </c>
       <c r="K23">
-        <v>0.8803811512888932</v>
+        <v>1.059257066119123</v>
       </c>
       <c r="L23">
-        <v>0.882432151557046</v>
+        <v>1.049704365278723</v>
       </c>
       <c r="M23">
-        <v>0.8781295846367935</v>
+        <v>1.066452275074799</v>
       </c>
       <c r="N23">
-        <v>0.8766871612650812</v>
+        <v>1.057995375909852</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.8482871048164177</v>
+        <v>1.056348598586833</v>
       </c>
       <c r="D24">
-        <v>0.8670379674397911</v>
+        <v>1.061810914615462</v>
       </c>
       <c r="E24">
-        <v>0.8691297170080721</v>
+        <v>1.051826244434646</v>
       </c>
       <c r="F24">
-        <v>0.864741362600714</v>
+        <v>1.069372710656523</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.8754439304689927</v>
+        <v>1.062404363018575</v>
       </c>
       <c r="K24">
-        <v>0.8803811512888932</v>
+        <v>1.065093308816834</v>
       </c>
       <c r="L24">
-        <v>0.882432151557046</v>
+        <v>1.055141991091542</v>
       </c>
       <c r="M24">
-        <v>0.8781295846367935</v>
+        <v>1.072630300041994</v>
       </c>
       <c r="N24">
-        <v>0.8766871612650812</v>
+        <v>1.063913099073544</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.8482871048164177</v>
+        <v>1.063677354202723</v>
       </c>
       <c r="D25">
-        <v>0.8670379674397911</v>
+        <v>1.068759876566056</v>
       </c>
       <c r="E25">
-        <v>0.8691297170080721</v>
+        <v>1.058321289480977</v>
       </c>
       <c r="F25">
-        <v>0.864741362600714</v>
+        <v>1.076712939882898</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.8754439304689927</v>
+        <v>1.069107373762431</v>
       </c>
       <c r="K25">
-        <v>0.8803811512888932</v>
+        <v>1.071712301888703</v>
       </c>
       <c r="L25">
-        <v>0.882432151557046</v>
+        <v>1.061304683107325</v>
       </c>
       <c r="M25">
-        <v>0.8781295846367935</v>
+        <v>1.079642208938691</v>
       </c>
       <c r="N25">
-        <v>0.8766871612650812</v>
+        <v>1.070625628861503</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_253/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_253/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.069404619044566</v>
+        <v>0.8318194599602443</v>
       </c>
       <c r="D2">
-        <v>1.074188088067272</v>
+        <v>0.8516456605549985</v>
       </c>
       <c r="E2">
-        <v>1.063392055330244</v>
+        <v>0.8547061107186348</v>
       </c>
       <c r="F2">
-        <v>1.082450564687025</v>
+        <v>0.8485927568445548</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.074339515050226</v>
+        <v>0.8605310953676576</v>
       </c>
       <c r="K2">
-        <v>1.076877962343133</v>
+        <v>0.8656483817560706</v>
       </c>
       <c r="L2">
-        <v>1.066110819384371</v>
+        <v>0.8686445678684772</v>
       </c>
       <c r="M2">
-        <v>1.085118749329561</v>
+        <v>0.862660195518907</v>
       </c>
       <c r="N2">
-        <v>1.075865200390062</v>
+        <v>0.8617531482273758</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.073499821534698</v>
+        <v>0.8760441851656687</v>
       </c>
       <c r="D3">
-        <v>1.078068119455432</v>
+        <v>0.8930210100524765</v>
       </c>
       <c r="E3">
-        <v>1.067014910477174</v>
+        <v>0.893491682930639</v>
       </c>
       <c r="F3">
-        <v>1.086553944373795</v>
+        <v>0.8919998647352175</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.078077137737485</v>
+        <v>0.9005972233889101</v>
       </c>
       <c r="K3">
-        <v>1.08056757023439</v>
+        <v>0.9052342171300957</v>
       </c>
       <c r="L3">
-        <v>1.069541647556044</v>
+        <v>0.9056968672681169</v>
       </c>
       <c r="M3">
-        <v>1.089032851632673</v>
+        <v>0.9042305151086034</v>
       </c>
       <c r="N3">
-        <v>1.079608130930248</v>
+        <v>0.9018761747460678</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.076122029012796</v>
+        <v>0.8992319665074333</v>
       </c>
       <c r="D4">
-        <v>1.080551921490236</v>
+        <v>0.9147582038052913</v>
       </c>
       <c r="E4">
-        <v>1.069333299430811</v>
+        <v>0.9138828832519917</v>
       </c>
       <c r="F4">
-        <v>1.089181731879241</v>
+        <v>0.9148059297635602</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.080468739226109</v>
+        <v>0.9216188663476566</v>
       </c>
       <c r="K4">
-        <v>1.082928205225848</v>
+        <v>0.9260073236552517</v>
       </c>
       <c r="L4">
-        <v>1.071735790851134</v>
+        <v>0.9251452367383184</v>
       </c>
       <c r="M4">
-        <v>1.091538249183221</v>
+        <v>0.9260543289903048</v>
       </c>
       <c r="N4">
-        <v>1.082003128767306</v>
+        <v>0.9229276708490317</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.077218013818547</v>
+        <v>0.9081238558128492</v>
       </c>
       <c r="D5">
-        <v>1.081589905841725</v>
+        <v>0.9231002529776966</v>
       </c>
       <c r="E5">
-        <v>1.070301969291542</v>
+        <v>0.921710095496252</v>
       </c>
       <c r="F5">
-        <v>1.090280129657587</v>
+        <v>0.9235592937900673</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.081467945314063</v>
+        <v>0.9296806879204805</v>
       </c>
       <c r="K5">
-        <v>1.083914415175479</v>
+        <v>0.9339741932916964</v>
       </c>
       <c r="L5">
-        <v>1.072652223395527</v>
+        <v>0.9326040597018166</v>
       </c>
       <c r="M5">
-        <v>1.092585207443027</v>
+        <v>0.9344266388244122</v>
       </c>
       <c r="N5">
-        <v>1.083003753842516</v>
+        <v>0.9310009411331928</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.077401666291574</v>
+        <v>0.9095745140206802</v>
       </c>
       <c r="D6">
-        <v>1.081763830294938</v>
+        <v>0.9244615121619318</v>
       </c>
       <c r="E6">
-        <v>1.070464268354773</v>
+        <v>0.9229874109130346</v>
       </c>
       <c r="F6">
-        <v>1.090464191158566</v>
+        <v>0.9249877510259347</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.081635357590057</v>
+        <v>0.9309959082406983</v>
       </c>
       <c r="K6">
-        <v>1.084079646577313</v>
+        <v>0.9352739356663281</v>
       </c>
       <c r="L6">
-        <v>1.072805751137326</v>
+        <v>0.9338208973919938</v>
       </c>
       <c r="M6">
-        <v>1.092760632593145</v>
+        <v>0.9357926758389665</v>
       </c>
       <c r="N6">
-        <v>1.083171403863145</v>
+        <v>0.9323180292171236</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.076136698426808</v>
+        <v>0.8993537660476595</v>
       </c>
       <c r="D7">
-        <v>1.080565815187576</v>
+        <v>0.9148724493550507</v>
       </c>
       <c r="E7">
-        <v>1.069346266077436</v>
+        <v>0.9139900727336536</v>
       </c>
       <c r="F7">
-        <v>1.08919643327435</v>
+        <v>0.9149258031304726</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.080482114839759</v>
+        <v>0.9217292959372191</v>
       </c>
       <c r="K7">
-        <v>1.082941407100331</v>
+        <v>0.9261164515651394</v>
       </c>
       <c r="L7">
-        <v>1.071748059526135</v>
+        <v>0.9252474065435642</v>
       </c>
       <c r="M7">
-        <v>1.091552263198381</v>
+        <v>0.9261690002821473</v>
       </c>
       <c r="N7">
-        <v>1.082016523375862</v>
+        <v>0.9230382572612779</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.070794481193901</v>
+        <v>0.8482871048164156</v>
       </c>
       <c r="D8">
-        <v>1.075505053895055</v>
+        <v>0.8670379674397893</v>
       </c>
       <c r="E8">
-        <v>1.064621892479433</v>
+        <v>0.8691297170080703</v>
       </c>
       <c r="F8">
-        <v>1.0838431293129</v>
+        <v>0.8647413626007121</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.075608361290322</v>
+        <v>0.8754439304689908</v>
       </c>
       <c r="K8">
-        <v>1.07813055916407</v>
+        <v>0.8803811512888914</v>
       </c>
       <c r="L8">
-        <v>1.067275754349049</v>
+        <v>0.8824321515570444</v>
       </c>
       <c r="M8">
-        <v>1.086447324754199</v>
+        <v>0.8781295846367916</v>
       </c>
       <c r="N8">
-        <v>1.077135848537358</v>
+        <v>0.8766871612650792</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.061158198065161</v>
+        <v>0.8482871048164156</v>
       </c>
       <c r="D9">
-        <v>1.066371616934374</v>
+        <v>0.8670379674397893</v>
       </c>
       <c r="E9">
-        <v>1.056089480605242</v>
+        <v>0.8691297170080703</v>
       </c>
       <c r="F9">
-        <v>1.074189616686943</v>
+        <v>0.8647413626007121</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.066804264487162</v>
+        <v>0.8754439304689908</v>
       </c>
       <c r="K9">
-        <v>1.069438200897037</v>
+        <v>0.8803811512888914</v>
       </c>
       <c r="L9">
-        <v>1.059187887108215</v>
+        <v>0.8824321515570444</v>
       </c>
       <c r="M9">
-        <v>1.07723244901418</v>
+        <v>0.8781295846367916</v>
       </c>
       <c r="N9">
-        <v>1.068319248906892</v>
+        <v>0.8766871612650792</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.054568734874692</v>
+        <v>0.8482871048164156</v>
       </c>
       <c r="D10">
-        <v>1.060122839671849</v>
+        <v>0.8670379674397893</v>
       </c>
       <c r="E10">
-        <v>1.050247859037545</v>
+        <v>0.8691297170080703</v>
       </c>
       <c r="F10">
-        <v>1.067590356509285</v>
+        <v>0.8647413626007121</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.060775224264203</v>
+        <v>0.8754439304689908</v>
       </c>
       <c r="K10">
-        <v>1.063484407765978</v>
+        <v>0.8803811512888914</v>
       </c>
       <c r="L10">
-        <v>1.053643312307956</v>
+        <v>0.8824321515570444</v>
       </c>
       <c r="M10">
-        <v>1.070926757649121</v>
+        <v>0.8781295846367916</v>
       </c>
       <c r="N10">
-        <v>1.062281646755276</v>
+        <v>0.8766871612650792</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.051672573472101</v>
+        <v>0.8482871048164156</v>
       </c>
       <c r="D11">
-        <v>1.057375686463261</v>
+        <v>0.8670379674397893</v>
       </c>
       <c r="E11">
-        <v>1.047678757758961</v>
+        <v>0.8691297170080703</v>
       </c>
       <c r="F11">
-        <v>1.064690386353461</v>
+        <v>0.8647413626007121</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1.058123332759835</v>
+        <v>0.8754439304689908</v>
       </c>
       <c r="K11">
-        <v>1.060865314548612</v>
+        <v>0.8803811512888914</v>
       </c>
       <c r="L11">
-        <v>1.05120309939799</v>
+        <v>0.8824321515570444</v>
       </c>
       <c r="M11">
-        <v>1.068154289907685</v>
+        <v>0.8781295846367916</v>
       </c>
       <c r="N11">
-        <v>1.059625989260796</v>
+        <v>0.8766871612650792</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.050590041262798</v>
+        <v>0.8482871048164156</v>
       </c>
       <c r="D12">
-        <v>1.056348743558179</v>
+        <v>0.8670379674397893</v>
       </c>
       <c r="E12">
-        <v>1.046718233444627</v>
+        <v>0.8691297170080703</v>
       </c>
       <c r="F12">
-        <v>1.063606507476275</v>
+        <v>0.8647413626007121</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.057131797778756</v>
+        <v>0.8754439304689908</v>
       </c>
       <c r="K12">
-        <v>1.059885997993526</v>
+        <v>0.8803811512888914</v>
       </c>
       <c r="L12">
-        <v>1.050290498862824</v>
+        <v>0.8824321515570444</v>
       </c>
       <c r="M12">
-        <v>1.067117839014086</v>
+        <v>0.8781295846367916</v>
       </c>
       <c r="N12">
-        <v>1.058633046186314</v>
+        <v>0.8766871612650792</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.050822559818209</v>
+        <v>0.8482871048164156</v>
       </c>
       <c r="D13">
-        <v>1.056569326824624</v>
+        <v>0.8670379674397893</v>
       </c>
       <c r="E13">
-        <v>1.046924556611527</v>
+        <v>0.8691297170080703</v>
       </c>
       <c r="F13">
-        <v>1.063839311766787</v>
+        <v>0.8647413626007121</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.057344784757568</v>
+        <v>0.8754439304689908</v>
       </c>
       <c r="K13">
-        <v>1.060096362409732</v>
+        <v>0.8803811512888914</v>
       </c>
       <c r="L13">
-        <v>1.050486539853503</v>
+        <v>0.8824321515570444</v>
       </c>
       <c r="M13">
-        <v>1.067340466601679</v>
+        <v>0.8781295846367916</v>
       </c>
       <c r="N13">
-        <v>1.058846335631066</v>
+        <v>0.8766871612650792</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.051583231047804</v>
+        <v>0.8482871048164156</v>
       </c>
       <c r="D14">
-        <v>1.057290934048185</v>
+        <v>0.8670379674397893</v>
       </c>
       <c r="E14">
-        <v>1.047599489655193</v>
+        <v>0.8691297170080703</v>
       </c>
       <c r="F14">
-        <v>1.064600931206836</v>
+        <v>0.8647413626007121</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.058041506658048</v>
+        <v>0.8754439304689908</v>
       </c>
       <c r="K14">
-        <v>1.060784497678436</v>
+        <v>0.8803811512888914</v>
       </c>
       <c r="L14">
-        <v>1.051127791637374</v>
+        <v>0.8824321515570444</v>
       </c>
       <c r="M14">
-        <v>1.068068753727957</v>
+        <v>0.8781295846367916</v>
       </c>
       <c r="N14">
-        <v>1.05954404695656</v>
+        <v>0.8766871612650792</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.052050998725617</v>
+        <v>0.8482871048164156</v>
       </c>
       <c r="D15">
-        <v>1.057734665573341</v>
+        <v>0.8670379674397893</v>
       </c>
       <c r="E15">
-        <v>1.048014501656273</v>
+        <v>0.8691297170080703</v>
       </c>
       <c r="F15">
-        <v>1.065069292219917</v>
+        <v>0.8647413626007121</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.058469908820806</v>
+        <v>0.8754439304689908</v>
       </c>
       <c r="K15">
-        <v>1.061207614162276</v>
+        <v>0.8803811512888914</v>
       </c>
       <c r="L15">
-        <v>1.05152205826036</v>
+        <v>0.8824321515570444</v>
       </c>
       <c r="M15">
-        <v>1.068516586909231</v>
+        <v>0.8781295846367916</v>
       </c>
       <c r="N15">
-        <v>1.059973057499528</v>
+        <v>0.8766871612650792</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.054760012593406</v>
+        <v>0.8482871048164156</v>
       </c>
       <c r="D16">
-        <v>1.060304261038091</v>
+        <v>0.8670379674397893</v>
       </c>
       <c r="E16">
-        <v>1.05041750218432</v>
+        <v>0.8691297170080703</v>
       </c>
       <c r="F16">
-        <v>1.067781896382617</v>
+        <v>0.8647413626007121</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.060950326364016</v>
+        <v>0.8754439304689908</v>
       </c>
       <c r="K16">
-        <v>1.063657337972954</v>
+        <v>0.8803811512888914</v>
       </c>
       <c r="L16">
-        <v>1.053804407909191</v>
+        <v>0.8824321515570444</v>
       </c>
       <c r="M16">
-        <v>1.07110984456905</v>
+        <v>0.8781295846367916</v>
       </c>
       <c r="N16">
-        <v>1.062456997520156</v>
+        <v>0.8766871612650792</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.056447599266</v>
+        <v>0.8482871048164156</v>
       </c>
       <c r="D17">
-        <v>1.061904804836991</v>
+        <v>0.8670379674397893</v>
       </c>
       <c r="E17">
-        <v>1.051914027355046</v>
+        <v>0.8691297170080703</v>
       </c>
       <c r="F17">
-        <v>1.06947185322566</v>
+        <v>0.8647413626007121</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1.062494966149789</v>
+        <v>0.8754439304689908</v>
       </c>
       <c r="K17">
-        <v>1.065182784420728</v>
+        <v>0.8803811512888914</v>
       </c>
       <c r="L17">
-        <v>1.055225329233717</v>
+        <v>0.8824321515570444</v>
       </c>
       <c r="M17">
-        <v>1.072725048573062</v>
+        <v>0.8781295846367916</v>
       </c>
       <c r="N17">
-        <v>1.064003830871598</v>
+        <v>0.8766871612650792</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.057427825519445</v>
+        <v>0.8482871048164156</v>
       </c>
       <c r="D18">
-        <v>1.06283440290319</v>
+        <v>0.8670379674397893</v>
       </c>
       <c r="E18">
-        <v>1.052783120706712</v>
+        <v>0.8691297170080703</v>
       </c>
       <c r="F18">
-        <v>1.070453503568833</v>
+        <v>0.8647413626007121</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1.063391966919018</v>
+        <v>0.8754439304689908</v>
       </c>
       <c r="K18">
-        <v>1.066068610634144</v>
+        <v>0.8803811512888914</v>
       </c>
       <c r="L18">
-        <v>1.056050349092324</v>
+        <v>0.8824321515570444</v>
       </c>
       <c r="M18">
-        <v>1.073663133312905</v>
+        <v>0.8781295846367916</v>
       </c>
       <c r="N18">
-        <v>1.064902105484807</v>
+        <v>0.8766871612650792</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.05776136911943</v>
+        <v>0.8482871048164156</v>
       </c>
       <c r="D19">
-        <v>1.063150707248724</v>
+        <v>0.8670379674397893</v>
       </c>
       <c r="E19">
-        <v>1.05307882236829</v>
+        <v>0.8691297170080703</v>
       </c>
       <c r="F19">
-        <v>1.070787539717096</v>
+        <v>0.8647413626007121</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1.063697158033274</v>
+        <v>0.8754439304689908</v>
       </c>
       <c r="K19">
-        <v>1.066369994910177</v>
+        <v>0.8803811512888914</v>
       </c>
       <c r="L19">
-        <v>1.05633102679533</v>
+        <v>0.8824321515570444</v>
       </c>
       <c r="M19">
-        <v>1.073982320603663</v>
+        <v>0.8781295846367916</v>
       </c>
       <c r="N19">
-        <v>1.06520773000545</v>
+        <v>0.8766871612650792</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.056266965082055</v>
+        <v>0.8482871048164156</v>
       </c>
       <c r="D20">
-        <v>1.06173349467292</v>
+        <v>0.8670379674397893</v>
       </c>
       <c r="E20">
-        <v>1.051753859935153</v>
+        <v>0.8691297170080703</v>
       </c>
       <c r="F20">
-        <v>1.069290960420143</v>
+        <v>0.8647413626007121</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1.062329652819211</v>
+        <v>0.8754439304689908</v>
       </c>
       <c r="K20">
-        <v>1.065019528200514</v>
+        <v>0.8803811512888914</v>
       </c>
       <c r="L20">
-        <v>1.055073270745956</v>
+        <v>0.8824321515570444</v>
       </c>
       <c r="M20">
-        <v>1.072552172197074</v>
+        <v>0.8781295846367916</v>
       </c>
       <c r="N20">
-        <v>1.063838282777128</v>
+        <v>0.8766871612650792</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.051359421885189</v>
+        <v>0.8482871048164156</v>
       </c>
       <c r="D21">
-        <v>1.057078621464795</v>
+        <v>0.8670379674397893</v>
       </c>
       <c r="E21">
-        <v>1.047400913506776</v>
+        <v>0.8691297170080703</v>
       </c>
       <c r="F21">
-        <v>1.064376840916159</v>
+        <v>0.8647413626007121</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.057836521481384</v>
+        <v>0.8754439304689908</v>
       </c>
       <c r="K21">
-        <v>1.060582040038853</v>
+        <v>0.8803811512888914</v>
       </c>
       <c r="L21">
-        <v>1.050939132355749</v>
+        <v>0.8824321515570444</v>
       </c>
       <c r="M21">
-        <v>1.067854477015278</v>
+        <v>0.8781295846367916</v>
       </c>
       <c r="N21">
-        <v>1.059338770677433</v>
+        <v>0.8766871612650792</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.048234518871114</v>
+        <v>0.8482871048164156</v>
       </c>
       <c r="D22">
-        <v>1.054113985804676</v>
+        <v>0.8670379674397893</v>
       </c>
       <c r="E22">
-        <v>1.044627753924193</v>
+        <v>0.8691297170080703</v>
       </c>
       <c r="F22">
-        <v>1.061248198549691</v>
+        <v>0.8647413626007121</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.05497371858355</v>
+        <v>0.8754439304689908</v>
       </c>
       <c r="K22">
-        <v>1.057754430387524</v>
+        <v>0.8803811512888914</v>
       </c>
       <c r="L22">
-        <v>1.048303833781944</v>
+        <v>0.8824321515570444</v>
       </c>
       <c r="M22">
-        <v>1.064862307429477</v>
+        <v>0.8781295846367916</v>
       </c>
       <c r="N22">
-        <v>1.056471902271116</v>
+        <v>0.8766871612650792</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.049894930753248</v>
+        <v>0.8482871048164156</v>
       </c>
       <c r="D23">
-        <v>1.055689297867532</v>
+        <v>0.8670379674397893</v>
       </c>
       <c r="E23">
-        <v>1.046101398555661</v>
+        <v>0.8691297170080703</v>
       </c>
       <c r="F23">
-        <v>1.062910554219863</v>
+        <v>0.8647413626007121</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1.056495031783046</v>
+        <v>0.8754439304689908</v>
       </c>
       <c r="K23">
-        <v>1.059257066119123</v>
+        <v>0.8803811512888914</v>
       </c>
       <c r="L23">
-        <v>1.049704365278723</v>
+        <v>0.8824321515570444</v>
       </c>
       <c r="M23">
-        <v>1.066452275074799</v>
+        <v>0.8781295846367916</v>
       </c>
       <c r="N23">
-        <v>1.057995375909852</v>
+        <v>0.8766871612650792</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.056348598586833</v>
+        <v>0.8482871048164156</v>
       </c>
       <c r="D24">
-        <v>1.061810914615462</v>
+        <v>0.8670379674397893</v>
       </c>
       <c r="E24">
-        <v>1.051826244434646</v>
+        <v>0.8691297170080703</v>
       </c>
       <c r="F24">
-        <v>1.069372710656523</v>
+        <v>0.8647413626007121</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1.062404363018575</v>
+        <v>0.8754439304689908</v>
       </c>
       <c r="K24">
-        <v>1.065093308816834</v>
+        <v>0.8803811512888914</v>
       </c>
       <c r="L24">
-        <v>1.055141991091542</v>
+        <v>0.8824321515570444</v>
       </c>
       <c r="M24">
-        <v>1.072630300041994</v>
+        <v>0.8781295846367916</v>
       </c>
       <c r="N24">
-        <v>1.063913099073544</v>
+        <v>0.8766871612650792</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.063677354202723</v>
+        <v>0.8482871048164156</v>
       </c>
       <c r="D25">
-        <v>1.068759876566056</v>
+        <v>0.8670379674397893</v>
       </c>
       <c r="E25">
-        <v>1.058321289480977</v>
+        <v>0.8691297170080703</v>
       </c>
       <c r="F25">
-        <v>1.076712939882898</v>
+        <v>0.8647413626007121</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.069107373762431</v>
+        <v>0.8754439304689908</v>
       </c>
       <c r="K25">
-        <v>1.071712301888703</v>
+        <v>0.8803811512888914</v>
       </c>
       <c r="L25">
-        <v>1.061304683107325</v>
+        <v>0.8824321515570444</v>
       </c>
       <c r="M25">
-        <v>1.079642208938691</v>
+        <v>0.8781295846367916</v>
       </c>
       <c r="N25">
-        <v>1.070625628861503</v>
+        <v>0.8766871612650792</v>
       </c>
     </row>
   </sheetData>
